--- a/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
+++ b/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F76CAF-4C50-4D21-8662-3109B27DEA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB997C4-15F9-4A19-9AE3-24B40D6B4B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPUTATION OF TERMINAL" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="284">
   <si>
     <t>NO</t>
   </si>
@@ -645,9 +645,6 @@
     <t>JUANITO</t>
   </si>
   <si>
-    <t>CSU Lobby</t>
-  </si>
-  <si>
     <t>Administrative Assistant V</t>
   </si>
   <si>
@@ -859,6 +856,33 @@
   </si>
   <si>
     <t>Secretary to the Sangguniang Panlungsod</t>
+  </si>
+  <si>
+    <t>AMELITA</t>
+  </si>
+  <si>
+    <t>FERMA</t>
+  </si>
+  <si>
+    <t>Agriculturist B</t>
+  </si>
+  <si>
+    <t>City Agriculture Office</t>
+  </si>
+  <si>
+    <t>PURISIMA</t>
+  </si>
+  <si>
+    <t>DUNGO</t>
+  </si>
+  <si>
+    <t>Ticket Checker</t>
+  </si>
+  <si>
+    <t>City Treasurer'S Office</t>
+  </si>
+  <si>
+    <t>Office of the City Mayor</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1106,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q73" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q74" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE" dataDxfId="15"/>
@@ -1435,10 +1459,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L58" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P72" sqref="P72"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1534,7 +1558,7 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>14</v>
@@ -1586,7 +1610,7 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>18</v>
@@ -1638,7 +1662,7 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>21</v>
@@ -1690,7 +1714,7 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>25</v>
@@ -1742,7 +1766,7 @@
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>28</v>
@@ -1794,7 +1818,7 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>32</v>
@@ -1846,7 +1870,7 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>145</v>
@@ -1898,7 +1922,7 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>46</v>
@@ -1950,7 +1974,7 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>51</v>
@@ -2000,10 +2024,10 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K11" s="2">
         <v>93942</v>
@@ -2052,10 +2076,10 @@
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K12" s="2">
         <v>93942</v>
@@ -2102,10 +2126,10 @@
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K13" s="2">
         <v>11374</v>
@@ -2154,7 +2178,7 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>18</v>
@@ -2206,7 +2230,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>28</v>
@@ -2258,7 +2282,7 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>68</v>
@@ -2310,7 +2334,7 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>72</v>
@@ -2362,7 +2386,7 @@
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>76</v>
@@ -2466,7 +2490,7 @@
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>84</v>
@@ -2518,7 +2542,7 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>84</v>
@@ -2726,7 +2750,7 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>68</v>
@@ -2834,7 +2858,7 @@
         <v>44651</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>109</v>
@@ -3099,7 +3123,7 @@
         <v>44712</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>129</v>
@@ -3207,7 +3231,7 @@
         <v>44742</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>117</v>
@@ -3261,7 +3285,7 @@
         <v>44742</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>117</v>
@@ -3315,7 +3339,7 @@
         <v>44742</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>117</v>
@@ -3367,7 +3391,7 @@
         <v>44742</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>117</v>
@@ -3527,7 +3551,7 @@
         <v>44742</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>117</v>
@@ -3581,7 +3605,7 @@
         <v>44742</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>117</v>
@@ -3635,10 +3659,10 @@
         <v>44742</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K42" s="2">
         <v>98900</v>
@@ -3800,7 +3824,7 @@
         <v>173</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K45" s="2">
         <v>10934</v>
@@ -3908,7 +3932,7 @@
         <v>173</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K47" s="2">
         <v>10494</v>
@@ -4229,10 +4253,10 @@
         <v>192</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K53" s="2">
         <v>13419</v>
@@ -4273,7 +4297,7 @@
         <v>60</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D54,"  ",F54),CONCATENATE(D54," ",LEFT(E54,1),".  ",F54)))</f>
@@ -4363,7 +4387,7 @@
         <v>65475.084146999994</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +4417,10 @@
         <v>44742</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K56" s="2">
         <v>24167</v>
@@ -4419,7 +4443,7 @@
         <v>183360.2907479915</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,7 +4530,7 @@
         <v>80</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="K58" s="2">
         <v>13419</v>
@@ -4541,13 +4565,13 @@
         <v>36</v>
       </c>
       <c r="D59" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="F59" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="G59" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D59,"  ",F59),CONCATENATE(D59," ",LEFT(E59,1),".  ",F59)))</f>
@@ -4560,7 +4584,7 @@
         <v>173</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K59" s="2">
         <v>11814</v>
@@ -4583,7 +4607,7 @@
         <v>47682.941715749999</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,10 +4637,10 @@
         <v>44742</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K60" s="2">
         <v>13419</v>
@@ -4639,7 +4663,7 @@
         <v>61031.462074846197</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4677,13 @@
         <v>36</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D61,"  ",F61),CONCATENATE(D61," ",LEFT(E61,1),".  ",F61)))</f>
@@ -4669,10 +4693,10 @@
         <v>38092</v>
       </c>
       <c r="I61" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="K61" s="2">
         <v>14944</v>
@@ -4695,7 +4719,7 @@
         <v>165884.6370547392</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,7 +4733,7 @@
         <v>36</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>23</v>
@@ -4725,10 +4749,10 @@
         <v>44816</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K62" s="2">
         <v>13419</v>
@@ -4751,7 +4775,7 @@
         <v>74282.947540924491</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,7 +4789,7 @@
         <v>38</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>44</v>
@@ -4781,10 +4805,10 @@
         <v>43647</v>
       </c>
       <c r="I63" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="K63" s="2">
         <v>102072</v>
@@ -4807,7 +4831,7 @@
         <v>1131398.813112</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,7 +4848,7 @@
         <v>57</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>58</v>
@@ -4840,7 +4864,7 @@
         <v>173</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K64" s="2">
         <v>11814</v>
@@ -4863,7 +4887,7 @@
         <v>65095.898007505195</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4901,13 @@
         <v>36</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D65,"  ",F65),CONCATENATE(D65," ",LEFT(E65,1),".  ",F65)))</f>
@@ -4893,10 +4917,10 @@
         <v>44855</v>
       </c>
       <c r="I65" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="K65" s="2">
         <v>16033</v>
@@ -4919,7 +4943,7 @@
         <v>109333.30861265</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4957,13 @@
         <v>36</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D66,"  ",F66),CONCATENATE(D66," ",LEFT(E66,1),".  ",F66)))</f>
@@ -4949,10 +4973,10 @@
         <v>44774</v>
       </c>
       <c r="I66" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J66" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="K66" s="2">
         <v>26228</v>
@@ -4975,7 +4999,7 @@
         <v>160407.68339831798</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5013,13 @@
         <v>36</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D67,"  ",F67),CONCATENATE(D67," ",LEFT(E67,1),".  ",F67)))</f>
@@ -5005,10 +5029,10 @@
         <v>44926</v>
       </c>
       <c r="I67" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="K67" s="2">
         <v>16157</v>
@@ -5031,7 +5055,7 @@
         <v>84914.058896156697</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,7 +5069,7 @@
         <v>36</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>44</v>
@@ -5061,10 +5085,10 @@
         <v>44926</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K68" s="2">
         <v>18048</v>
@@ -5087,7 +5111,7 @@
         <v>83665.185894873604</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,10 +5141,10 @@
         <v>44742</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K69" s="2">
         <v>18048</v>
@@ -5142,7 +5166,9 @@
         <f t="shared" ref="P69:P73" si="12">PRODUCT(K69,N69,O69)</f>
         <v>130249.8319776</v>
       </c>
-      <c r="Q69" s="1"/>
+      <c r="Q69" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
@@ -5155,11 +5181,11 @@
         <v>36</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G70" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D70,"  ",F70),CONCATENATE(D70," ",LEFT(E70,1),".  ",F70)))</f>
@@ -5169,10 +5195,10 @@
         <v>40056</v>
       </c>
       <c r="I70" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J70" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="K70" s="2">
         <v>26859</v>
@@ -5194,7 +5220,9 @@
         <f t="shared" si="12"/>
         <v>427793.98808727425</v>
       </c>
-      <c r="Q70" s="1"/>
+      <c r="Q70" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
@@ -5207,7 +5235,7 @@
         <v>38</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>44</v>
@@ -5226,7 +5254,7 @@
         <v>173</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K71" s="2">
         <v>11374</v>
@@ -5248,20 +5276,22 @@
         <f t="shared" si="12"/>
         <v>50657.254629836796</v>
       </c>
-      <c r="Q71" s="1"/>
+      <c r="Q71" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>72</v>
       </c>
       <c r="B72" s="10">
-        <v>44917</v>
+        <v>44916</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>151</v>
@@ -5277,10 +5307,10 @@
         <v>44926</v>
       </c>
       <c r="I72" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J72" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="K72" s="2">
         <v>14354</v>
@@ -5302,7 +5332,9 @@
         <f t="shared" si="12"/>
         <v>366331.52539514279</v>
       </c>
-      <c r="Q72" s="1"/>
+      <c r="Q72" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
@@ -5311,32 +5343,108 @@
       <c r="B73" s="10">
         <v>44917</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="C73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="G73" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D73,"  ",F73),CONCATENATE(D73," ",LEFT(E73,1),".  ",F73)))</f>
-        <v xml:space="preserve">  </v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="3"/>
+        <v>AMELITA V.  FERMA</v>
+      </c>
+      <c r="H73" s="7">
+        <v>44926</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K73" s="2">
+        <v>26497</v>
+      </c>
+      <c r="L73" s="12">
+        <v>187.75</v>
+      </c>
+      <c r="M73" s="3">
+        <v>265.75</v>
+      </c>
       <c r="N73" s="3">
         <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
-        <v>0</v>
+        <v>453.5</v>
       </c>
       <c r="O73" s="4">
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q73" s="1"/>
+        <v>579102.25425664999</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="10">
+        <v>44918</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="6" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D74,"  ",F74),CONCATENATE(D74," ",LEFT(E74,1),".  ",F74)))</f>
+        <v>PURISIMA C.  DUNGO</v>
+      </c>
+      <c r="H74" s="7">
+        <v>44926</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K74" s="2">
+        <v>13419</v>
+      </c>
+      <c r="L74" s="12">
+        <v>22.856999999999999</v>
+      </c>
+      <c r="M74" s="3">
+        <v>57.25</v>
+      </c>
+      <c r="N74" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>80.106999999999999</v>
+      </c>
+      <c r="O74" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P74" s="2">
+        <f>PRODUCT(K74,N74,O74)</f>
+        <v>51805.023973019102</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5351,7 +5459,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C73</xm:sqref>
+          <xm:sqref>C2:C74</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5377,10 +5485,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">

--- a/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
+++ b/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB997C4-15F9-4A19-9AE3-24B40D6B4B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A760C08-CD11-4C1A-8D29-DA10A0146726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPUTATION OF TERMINAL" sheetId="1" r:id="rId1"/>
@@ -870,9 +870,6 @@
     <t>City Agriculture Office</t>
   </si>
   <si>
-    <t>PURISIMA</t>
-  </si>
-  <si>
     <t>DUNGO</t>
   </si>
   <si>
@@ -883,6 +880,9 @@
   </si>
   <si>
     <t>Office of the City Mayor</t>
+  </si>
+  <si>
+    <t>PURISIMA CORAZON</t>
   </si>
 </sst>
 </file>
@@ -1461,8 +1461,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="L64" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4530,7 +4530,7 @@
         <v>80</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K58" s="2">
         <v>13419</v>
@@ -5214,11 +5214,11 @@
         <v>330.49400000000003</v>
       </c>
       <c r="O70" s="4">
-        <v>4.8192699999999998E-2</v>
+        <v>4.7808700000000003E-2</v>
       </c>
       <c r="P70" s="2">
         <f t="shared" si="12"/>
-        <v>427793.98808727425</v>
+        <v>424385.32056241028</v>
       </c>
       <c r="Q70" s="1" t="s">
         <v>245</v>
@@ -5401,26 +5401,26 @@
         <v>36</v>
       </c>
       <c r="D74" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="G74" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D74,"  ",F74),CONCATENATE(D74," ",LEFT(E74,1),".  ",F74)))</f>
-        <v>PURISIMA C.  DUNGO</v>
+        <v>PURISIMA CORAZON E.  DUNGO</v>
       </c>
       <c r="H74" s="7">
         <v>44926</v>
       </c>
       <c r="I74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J74" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="K74" s="2">
         <v>13419</v>

--- a/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
+++ b/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A760C08-CD11-4C1A-8D29-DA10A0146726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5445B11-4332-4AD2-936B-E70401352C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPUTATION OF TERMINAL" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="287">
   <si>
     <t>NO</t>
   </si>
@@ -741,9 +741,6 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>City Vice Mayor's Office</t>
   </si>
   <si>
@@ -883,6 +880,18 @@
   </si>
   <si>
     <t>PURISIMA CORAZON</t>
+  </si>
+  <si>
+    <t>SHIRLEY</t>
+  </si>
+  <si>
+    <t>DATU</t>
+  </si>
+  <si>
+    <t>Ospital ng Tagaytay</t>
+  </si>
+  <si>
+    <t>Casual Nurse</t>
   </si>
 </sst>
 </file>
@@ -963,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,6 +1018,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,8 +1118,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q74" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q75" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q75" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q75">
+    <sortCondition ref="A1:A75"/>
+  </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE" dataDxfId="15"/>
@@ -1459,10 +1474,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L64" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="O84" sqref="O84"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1595,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:P26" si="0">PRODUCT(K2,N2,O2)</f>
+        <f>PRODUCT(K2,N2,O2)</f>
         <v>98291.080321647489</v>
       </c>
       <c r="Q2" s="1"/>
@@ -1632,7 +1647,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K3,N3,O3)</f>
         <v>56991.946731935299</v>
       </c>
       <c r="Q3" s="1"/>
@@ -1684,7 +1699,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K4,N4,O4)</f>
         <v>35336.709468638095</v>
       </c>
       <c r="Q4" s="1"/>
@@ -1736,7 +1751,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P5" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K5,N5,O5)</f>
         <v>665936.52497109235</v>
       </c>
       <c r="Q5" s="1"/>
@@ -1788,7 +1803,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K6,N6,O6)</f>
         <v>177561.08826568321</v>
       </c>
       <c r="Q6" s="1"/>
@@ -1840,7 +1855,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K7,N7,O7)</f>
         <v>2330552.9805497653</v>
       </c>
       <c r="Q7" s="1"/>
@@ -1892,7 +1907,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K8,N8,O8)</f>
         <v>641845.34262612078</v>
       </c>
       <c r="Q8" s="1"/>
@@ -1944,7 +1959,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K9,N9,O9)</f>
         <v>201495.23489047572</v>
       </c>
       <c r="Q9" s="1"/>
@@ -1994,7 +2009,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K10,N10,O10)</f>
         <v>14783.145423743998</v>
       </c>
       <c r="Q10" s="1"/>
@@ -2027,7 +2042,7 @@
         <v>216</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K11" s="2">
         <v>93942</v>
@@ -2046,7 +2061,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K11,N11,O11)</f>
         <v>199202.01942959998</v>
       </c>
       <c r="Q11" s="1"/>
@@ -2079,7 +2094,7 @@
         <v>217</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K12" s="2">
         <v>93942</v>
@@ -2098,7 +2113,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K12,N12,O12)</f>
         <v>243343.37600774999</v>
       </c>
       <c r="Q12" s="1"/>
@@ -2129,7 +2144,7 @@
         <v>218</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K13" s="2">
         <v>11374</v>
@@ -2148,7 +2163,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K13,N13,O13)</f>
         <v>53581.053497950001</v>
       </c>
       <c r="Q13" s="1"/>
@@ -2200,7 +2215,7 @@
         <v>4.7808700000000003E-2</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K14,N14,O14)</f>
         <v>49549.479308744994</v>
       </c>
       <c r="Q14" s="1"/>
@@ -2252,7 +2267,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K15,N15,O15)</f>
         <v>132370.21246449201</v>
       </c>
       <c r="Q15" s="1"/>
@@ -2304,7 +2319,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K16,N16,O16)</f>
         <v>334200.16849980754</v>
       </c>
       <c r="Q16" s="1"/>
@@ -2356,7 +2371,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K17,N17,O17)</f>
         <v>154025.966546304</v>
       </c>
       <c r="Q17" s="1"/>
@@ -2408,7 +2423,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K18,N18,O18)</f>
         <v>25397.693429913204</v>
       </c>
       <c r="Q18" s="1"/>
@@ -2460,7 +2475,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K19,N19,O19)</f>
         <v>117758.65907680601</v>
       </c>
       <c r="Q19" s="1"/>
@@ -2512,7 +2527,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K20,N20,O20)</f>
         <v>33847.217448774602</v>
       </c>
       <c r="Q20" s="1"/>
@@ -2564,7 +2579,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K21,N21,O21)</f>
         <v>218073.22051019999</v>
       </c>
       <c r="Q21" s="1"/>
@@ -2616,7 +2631,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K22,N22,O22)</f>
         <v>60363.060217366903</v>
       </c>
       <c r="Q22" s="1"/>
@@ -2668,7 +2683,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K23,N23,O23)</f>
         <v>32411.192964504196</v>
       </c>
       <c r="Q23" s="1"/>
@@ -2720,7 +2735,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K24,N24,O24)</f>
         <v>69680.029462768798</v>
       </c>
       <c r="Q24" s="1"/>
@@ -2772,7 +2787,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K25,N25,O25)</f>
         <v>2955037.3483014335</v>
       </c>
       <c r="Q25" s="1"/>
@@ -2826,7 +2841,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="0"/>
+        <f>PRODUCT(K26,N26,O26)</f>
         <v>19094.040077213202</v>
       </c>
       <c r="Q26" s="1"/>
@@ -2986,7 +3001,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" ref="P29:P32" si="1">PRODUCT(K29,N29,O29)</f>
+        <f>PRODUCT(K29,N29,O29)</f>
         <v>61868.830381894804</v>
       </c>
       <c r="Q29" s="1"/>
@@ -3039,7 +3054,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(K30,N30,O30)</f>
         <v>47962.579857500001</v>
       </c>
       <c r="Q30" s="1"/>
@@ -3091,7 +3106,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(K31,N31,O31)</f>
         <v>37909.504372555202</v>
       </c>
       <c r="Q31" s="1"/>
@@ -3145,7 +3160,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="1"/>
+        <f>PRODUCT(K32,N32,O32)</f>
         <v>446804.29758919508</v>
       </c>
       <c r="Q32" s="1"/>
@@ -3199,7 +3214,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" ref="P33:P39" si="2">PRODUCT(K33,N33,O33)</f>
+        <f>PRODUCT(K33,N33,O33)</f>
         <v>27224.829433678799</v>
       </c>
       <c r="Q33" s="1"/>
@@ -3253,7 +3268,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(K34,N34,O34)</f>
         <v>2592934.7778252</v>
       </c>
       <c r="Q34" s="1"/>
@@ -3307,7 +3322,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(K35,N35,O35)</f>
         <v>229362.31229249999</v>
       </c>
       <c r="Q35" s="1"/>
@@ -3361,7 +3376,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(K36,N36,O36)</f>
         <v>206920.31985231899</v>
       </c>
       <c r="Q36" s="1"/>
@@ -3413,7 +3428,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(K37,N37,O37)</f>
         <v>88651.926876769197</v>
       </c>
       <c r="Q37" s="1"/>
@@ -3465,7 +3480,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(K38,N38,O38)</f>
         <v>53581.053497950001</v>
       </c>
       <c r="Q38" s="1"/>
@@ -3519,7 +3534,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="2"/>
+        <f>PRODUCT(K39,N39,O39)</f>
         <v>34533.057497399997</v>
       </c>
       <c r="Q39" s="1"/>
@@ -3573,7 +3588,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" ref="P40" si="3">PRODUCT(K40,N40,O40)</f>
+        <f>PRODUCT(K40,N40,O40)</f>
         <v>106983.1675008</v>
       </c>
       <c r="Q40" s="1"/>
@@ -3627,7 +3642,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" ref="P41" si="4">PRODUCT(K41,N41,O41)</f>
+        <f>PRODUCT(K41,N41,O41)</f>
         <v>132932.477177319</v>
       </c>
       <c r="Q41" s="1"/>
@@ -3662,7 +3677,7 @@
         <v>225</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K42" s="2">
         <v>98900</v>
@@ -3681,7 +3696,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" ref="P42:P51" si="5">PRODUCT(K42,N42,O42)</f>
+        <f>PRODUCT(K42,N42,O42)</f>
         <v>1707912.3049220201</v>
       </c>
       <c r="Q42" s="1"/>
@@ -3735,7 +3750,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K43,N43,O43)</f>
         <v>39301.217018571202</v>
       </c>
       <c r="Q43" s="1"/>
@@ -3789,7 +3804,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K44,N44,O44)</f>
         <v>444025.33195323561</v>
       </c>
       <c r="Q44" s="1"/>
@@ -3843,7 +3858,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" ref="P45" si="6">PRODUCT(K45,N45,O45)</f>
+        <f>PRODUCT(K45,N45,O45)</f>
         <v>28805.6463790788</v>
       </c>
       <c r="Q45" s="1"/>
@@ -3897,7 +3912,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K46,N46,O46)</f>
         <v>80323.636221257009</v>
       </c>
       <c r="Q46" s="1"/>
@@ -3932,7 +3947,7 @@
         <v>173</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K47" s="2">
         <v>10494</v>
@@ -3951,7 +3966,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K47,N47,O47)</f>
         <v>24191.289426229199</v>
       </c>
       <c r="Q47" s="1"/>
@@ -4005,7 +4020,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K48,N48,O48)</f>
         <v>66898.455541499992</v>
       </c>
       <c r="Q48" s="1"/>
@@ -4059,7 +4074,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P49" s="2">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K49,N49,O49)</f>
         <v>52808.170782532005</v>
       </c>
       <c r="Q49" s="1"/>
@@ -4113,7 +4128,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P50" s="2">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K50,N50,O50)</f>
         <v>67135.3045415448</v>
       </c>
       <c r="Q50" s="1"/>
@@ -4167,7 +4182,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" si="5"/>
+        <f>PRODUCT(K51,N51,O51)</f>
         <v>38482.750466774996</v>
       </c>
       <c r="Q51" s="1"/>
@@ -4221,7 +4236,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" ref="P52:P57" si="7">PRODUCT(K52,N52,O52)</f>
+        <f>PRODUCT(K52,N52,O52)</f>
         <v>156379.57897833502</v>
       </c>
       <c r="Q52" s="1"/>
@@ -4256,7 +4271,7 @@
         <v>228</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K53" s="2">
         <v>13419</v>
@@ -4275,7 +4290,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="7"/>
+        <f>PRODUCT(K53,N53,O53)</f>
         <v>80190.532321199993</v>
       </c>
       <c r="Q53" s="1"/>
@@ -4297,7 +4312,7 @@
         <v>60</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G54" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D54,"  ",F54),CONCATENATE(D54," ",LEFT(E54,1),".  ",F54)))</f>
@@ -4329,7 +4344,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="7"/>
+        <f>PRODUCT(K54,N54,O54)</f>
         <v>40837.771089499998</v>
       </c>
       <c r="Q54" s="1"/>
@@ -4383,11 +4398,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P55" s="2">
-        <f t="shared" si="7"/>
+        <f>PRODUCT(K55,N55,O55)</f>
         <v>65475.084146999994</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,11 +4454,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P56" s="2">
-        <f t="shared" si="7"/>
+        <f>PRODUCT(K56,N56,O56)</f>
         <v>183360.2907479915</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,7 +4510,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" si="7"/>
+        <f>PRODUCT(K57,N57,O57)</f>
         <v>65759.7584259</v>
       </c>
       <c r="Q57" s="1"/>
@@ -4530,7 +4545,7 @@
         <v>80</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K58" s="2">
         <v>13419</v>
@@ -4549,10 +4564,12 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" ref="P58:P59" si="8">PRODUCT(K58,N58,O58)</f>
+        <f>PRODUCT(K58,N58,O58)</f>
         <v>155962.82499063839</v>
       </c>
-      <c r="Q58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -4603,11 +4620,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" si="8"/>
+        <f>PRODUCT(K59,N59,O59)</f>
         <v>47682.941715749999</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,7 +4657,7 @@
         <v>228</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K60" s="2">
         <v>13419</v>
@@ -4659,11 +4676,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" ref="P60:P61" si="9">PRODUCT(K60,N60,O60)</f>
+        <f>PRODUCT(K60,N60,O60)</f>
         <v>61031.462074846197</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4694,13 @@
         <v>36</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G61" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D61,"  ",F61),CONCATENATE(D61," ",LEFT(E61,1),".  ",F61)))</f>
@@ -4693,10 +4710,10 @@
         <v>38092</v>
       </c>
       <c r="I61" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J61" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="K61" s="2">
         <v>14944</v>
@@ -4715,11 +4732,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="9"/>
+        <f>PRODUCT(K61,N61,O61)</f>
         <v>165884.6370547392</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,7 +4750,7 @@
         <v>36</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>23</v>
@@ -4749,10 +4766,10 @@
         <v>44816</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K62" s="2">
         <v>13419</v>
@@ -4775,7 +4792,7 @@
         <v>74282.947540924491</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,7 +4806,7 @@
         <v>38</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>44</v>
@@ -4805,10 +4822,10 @@
         <v>43647</v>
       </c>
       <c r="I63" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J63" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="K63" s="2">
         <v>102072</v>
@@ -4827,11 +4844,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P63" s="2">
-        <f t="shared" ref="P63:P65" si="10">PRODUCT(K63,N63,O63)</f>
+        <f>PRODUCT(K63,N63,O63)</f>
         <v>1131398.813112</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,7 +4881,7 @@
         <v>173</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K64" s="2">
         <v>11814</v>
@@ -4883,11 +4900,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P64" s="2">
-        <f t="shared" si="10"/>
+        <f>PRODUCT(K64,N64,O64)</f>
         <v>65095.898007505195</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4918,13 @@
         <v>36</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G65" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D65,"  ",F65),CONCATENATE(D65," ",LEFT(E65,1),".  ",F65)))</f>
@@ -4917,10 +4934,10 @@
         <v>44855</v>
       </c>
       <c r="I65" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J65" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="K65" s="2">
         <v>16033</v>
@@ -4939,11 +4956,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P65" s="2">
-        <f t="shared" si="10"/>
+        <f>PRODUCT(K65,N65,O65)</f>
         <v>109333.30861265</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4974,13 @@
         <v>36</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G66" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D66,"  ",F66),CONCATENATE(D66," ",LEFT(E66,1),".  ",F66)))</f>
@@ -4973,10 +4990,10 @@
         <v>44774</v>
       </c>
       <c r="I66" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J66" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="K66" s="2">
         <v>26228</v>
@@ -4995,11 +5012,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P66" s="2">
-        <f t="shared" ref="P66:P67" si="11">PRODUCT(K66,N66,O66)</f>
+        <f>PRODUCT(K66,N66,O66)</f>
         <v>160407.68339831798</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5030,13 @@
         <v>36</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G67" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D67,"  ",F67),CONCATENATE(D67," ",LEFT(E67,1),".  ",F67)))</f>
@@ -5029,10 +5046,10 @@
         <v>44926</v>
       </c>
       <c r="I67" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="K67" s="2">
         <v>16157</v>
@@ -5051,11 +5068,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P67" s="2">
-        <f t="shared" si="11"/>
+        <f>PRODUCT(K67,N67,O67)</f>
         <v>84914.058896156697</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,7 +5086,7 @@
         <v>36</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>44</v>
@@ -5085,10 +5102,10 @@
         <v>44926</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K68" s="2">
         <v>18048</v>
@@ -5111,7 +5128,7 @@
         <v>83665.185894873604</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,7 +5161,7 @@
         <v>234</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K69" s="2">
         <v>18048</v>
@@ -5163,11 +5180,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" ref="P69:P73" si="12">PRODUCT(K69,N69,O69)</f>
+        <f>PRODUCT(K69,N69,O69)</f>
         <v>130249.8319776</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,11 +5198,11 @@
         <v>36</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G70" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D70,"  ",F70),CONCATENATE(D70," ",LEFT(E70,1),".  ",F70)))</f>
@@ -5195,10 +5212,10 @@
         <v>40056</v>
       </c>
       <c r="I70" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J70" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="K70" s="2">
         <v>26859</v>
@@ -5217,11 +5234,11 @@
         <v>4.7808700000000003E-2</v>
       </c>
       <c r="P70" s="2">
-        <f t="shared" si="12"/>
+        <f>PRODUCT(K70,N70,O70)</f>
         <v>424385.32056241028</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,7 +5252,7 @@
         <v>38</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>44</v>
@@ -5254,7 +5271,7 @@
         <v>173</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K71" s="2">
         <v>11374</v>
@@ -5273,11 +5290,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="12"/>
+        <f>PRODUCT(K71,N71,O71)</f>
         <v>50657.254629836796</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5308,7 @@
         <v>36</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>151</v>
@@ -5307,10 +5324,10 @@
         <v>44926</v>
       </c>
       <c r="I72" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J72" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="K72" s="2">
         <v>14354</v>
@@ -5329,11 +5346,11 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P72" s="2">
-        <f t="shared" si="12"/>
+        <f>PRODUCT(K72,N72,O72)</f>
         <v>366331.52539514279</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5364,13 @@
         <v>36</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>112</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G73" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D73,"  ",F73),CONCATENATE(D73," ",LEFT(E73,1),".  ",F73)))</f>
@@ -5363,10 +5380,10 @@
         <v>44926</v>
       </c>
       <c r="I73" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="J73" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>278</v>
       </c>
       <c r="K73" s="2">
         <v>26497</v>
@@ -5385,15 +5402,17 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P73" s="2">
-        <f t="shared" si="12"/>
+        <f>PRODUCT(K73,N73,O73)</f>
         <v>579102.25425664999</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
       <c r="B74" s="10">
         <v>44918</v>
       </c>
@@ -5401,13 +5420,13 @@
         <v>36</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G74" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D74,"  ",F74),CONCATENATE(D74," ",LEFT(E74,1),".  ",F74)))</f>
@@ -5417,10 +5436,10 @@
         <v>44926</v>
       </c>
       <c r="I74" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J74" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="K74" s="2">
         <v>13419</v>
@@ -5443,8 +5462,62 @@
         <v>51805.023973019102</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75" s="10">
+        <v>44929</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G75" s="16" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D75,"  ",F75),CONCATENATE(D75," ",LEFT(E75,1),".  ",F75)))</f>
+        <v>SHIRLEY G.  DATU</v>
+      </c>
+      <c r="H75" s="7">
+        <v>44929</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K75" s="2">
+        <v>24167</v>
+      </c>
+      <c r="L75" s="12">
+        <v>1.333</v>
+      </c>
+      <c r="M75" s="3">
+        <v>26.332999999999998</v>
+      </c>
+      <c r="N75" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>27.665999999999997</v>
+      </c>
+      <c r="O75" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P75" s="2">
+        <f>PRODUCT(K75,N75,O75)</f>
+        <v>32221.842689579396</v>
+      </c>
+      <c r="Q75" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5459,7 +5532,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C74</xm:sqref>
+          <xm:sqref>C2:C75</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5485,10 +5558,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F1" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">

--- a/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
+++ b/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5445B11-4332-4AD2-936B-E70401352C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8D4DD0-0012-4784-A3DE-29D573DA1DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COMPUTATION OF TERMINAL" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="ACCOMPLISHMENT REPORT" sheetId="7" r:id="rId1"/>
+    <sheet name="COMPUTATION OF TERMINAL" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="287">
   <si>
     <t>NO</t>
   </si>
@@ -945,7 +949,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -968,11 +972,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,14 +1134,24 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1081,9 +1206,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1117,6 +1239,1620 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ASUS" refreshedDate="44931.428904745371" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="74" xr:uid="{02FE22E8-2788-4590-9F8F-30FED0171770}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="17">
+    <cacheField name="NO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="75"/>
+    </cacheField>
+    <cacheField name="DATE" numFmtId="0">
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2020-02-07T00:00:00" maxDate="2023-01-04T00:00:00" count="49">
+        <d v="2021-08-25T00:00:00"/>
+        <d v="2021-09-01T00:00:00"/>
+        <d v="2021-09-15T00:00:00"/>
+        <d v="2021-10-14T00:00:00"/>
+        <s v="11/52021"/>
+        <d v="2021-11-08T00:00:00"/>
+        <d v="2021-11-19T00:00:00"/>
+        <d v="2021-11-25T00:00:00"/>
+        <d v="2021-12-02T00:00:00"/>
+        <d v="2022-01-25T00:00:00"/>
+        <d v="2022-02-03T00:00:00"/>
+        <d v="2020-02-07T00:00:00"/>
+        <d v="2022-02-08T00:00:00"/>
+        <d v="2022-03-03T00:00:00"/>
+        <d v="2022-03-04T00:00:00"/>
+        <d v="2022-03-14T00:00:00"/>
+        <d v="2022-03-30T00:00:00"/>
+        <d v="2022-04-04T00:00:00"/>
+        <s v="4//7/2022"/>
+        <d v="2022-04-18T00:00:00"/>
+        <d v="2022-05-17T00:00:00"/>
+        <d v="2022-05-19T00:00:00"/>
+        <d v="2022-06-20T00:00:00"/>
+        <d v="2022-06-24T00:00:00"/>
+        <d v="2022-07-01T00:00:00"/>
+        <d v="2022-07-07T00:00:00"/>
+        <d v="2022-07-25T00:00:00"/>
+        <d v="2022-08-02T00:00:00"/>
+        <d v="2022-08-18T00:00:00"/>
+        <d v="2022-08-22T00:00:00"/>
+        <d v="2022-08-25T00:00:00"/>
+        <d v="2022-09-12T00:00:00"/>
+        <d v="2022-09-15T00:00:00"/>
+        <d v="2022-09-28T00:00:00"/>
+        <d v="2022-10-22T00:00:00"/>
+        <d v="2022-10-25T00:00:00"/>
+        <d v="2022-10-26T00:00:00"/>
+        <d v="2022-10-28T00:00:00"/>
+        <d v="2022-11-07T00:00:00"/>
+        <d v="2022-11-17T00:00:00"/>
+        <d v="2022-11-18T00:00:00"/>
+        <d v="2022-11-22T00:00:00"/>
+        <d v="2022-12-07T00:00:00"/>
+        <d v="2022-12-09T00:00:00"/>
+        <d v="2022-12-14T00:00:00"/>
+        <d v="2022-12-22T00:00:00"/>
+        <d v="2022-12-21T00:00:00"/>
+        <d v="2022-12-23T00:00:00"/>
+        <d v="2023-01-03T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GENDER" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="FIRSTNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="MIDDLE INITIAL" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LASTNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="FULLNAME" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="LASTDAY OF SERVICE" numFmtId="166">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2004-04-15T00:00:00" maxDate="2023-01-04T00:00:00"/>
+    </cacheField>
+    <cacheField name="POSITION" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="OFFICE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="MONTHLY SALARY" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8713" maxValue="121179"/>
+    </cacheField>
+    <cacheField name="VACATION LEAVE" numFmtId="167">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="428.40499999999997"/>
+    </cacheField>
+    <cacheField name="SICK LEAVE" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="453.97399999999999"/>
+    </cacheField>
+    <cacheField name="TOTAL LEAVE CREDITS" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="18.795999999999999" maxValue="744.05399999999997"/>
+    </cacheField>
+    <cacheField name="CONSTANT FACTOR" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.7808700000000003E-2" maxValue="4.8192699999999998E-2"/>
+    </cacheField>
+    <cacheField name="TOTAL LEAVE BENEFITS" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14783.145423743998" maxValue="2955037.3483014335"/>
+    </cacheField>
+    <cacheField name="REMARKS" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="74">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="MRS"/>
+    <s v="LINDA"/>
+    <s v="G"/>
+    <s v="BAYBAY"/>
+    <s v="LINDA G.  BAYBAY"/>
+    <m/>
+    <s v="Revenue Collection Clerk I"/>
+    <s v="CTO/DETAILED CIVIL REGISTRY OFFICE"/>
+    <n v="14623"/>
+    <n v="139.47499999999999"/>
+    <n v="0"/>
+    <n v="139.47499999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="98291.080321647489"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="MS"/>
+    <s v="JUDY ANN"/>
+    <s v="B"/>
+    <s v="ALCANTARA"/>
+    <s v="JUDY ANN B.  ALCANTARA"/>
+    <m/>
+    <s v="Admin Aide III"/>
+    <s v="CITY MAYOR'S OFFICE"/>
+    <n v="12893"/>
+    <n v="29.472999999999999"/>
+    <n v="62.25"/>
+    <n v="91.722999999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="56991.946731935299"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="1"/>
+    <s v="MR"/>
+    <s v="REGINALDO JR."/>
+    <s v="B"/>
+    <s v="BUNGCASAN"/>
+    <s v="REGINALDO JR. B.  BUNGCASAN"/>
+    <m/>
+    <s v="Admin Aide III"/>
+    <s v="TICC-(DETAILED CPDO)"/>
+    <n v="12893"/>
+    <n v="1.663"/>
+    <n v="55.207999999999998"/>
+    <n v="56.870999999999995"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="35336.709468638095"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="MRS"/>
+    <s v="GRACITA "/>
+    <s v="S"/>
+    <s v="ALMARAREZ"/>
+    <s v="GRACITA  S.  ALMARAREZ"/>
+    <m/>
+    <s v="Nurse II"/>
+    <s v="CITY HEALTH OFFICE"/>
+    <n v="32255"/>
+    <n v="428.40499999999997"/>
+    <n v="0"/>
+    <n v="428.40499999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="665936.52497109235"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="MR"/>
+    <s v="AMBION"/>
+    <s v="G"/>
+    <s v="PRISCO"/>
+    <s v="AMBION G.  PRISCO"/>
+    <m/>
+    <s v="Engineer I"/>
+    <s v="CITY ENGINEER'S OFFICE"/>
+    <n v="25019"/>
+    <n v="147.26400000000001"/>
+    <n v="0"/>
+    <n v="147.26400000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="177561.08826568321"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <s v="MR"/>
+    <s v="ALFREDO"/>
+    <s v="C"/>
+    <s v="DIMAPILIS"/>
+    <s v="ALFREDO C.  DIMAPILIS"/>
+    <m/>
+    <s v="Supervising Administrative Officer"/>
+    <s v="BUDGET OFFICE"/>
+    <n v="64994"/>
+    <n v="290.08"/>
+    <n v="453.97399999999999"/>
+    <n v="744.05399999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="2330552.9805497653"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="3"/>
+    <s v="MRS"/>
+    <s v="PACITA"/>
+    <s v="Z"/>
+    <s v="AQUINO"/>
+    <s v="PACITA Z.  AQUINO"/>
+    <m/>
+    <s v="Executive Asst. Iv"/>
+    <s v="Mayor's Office/Detailed at general Services Office"/>
+    <n v="64994"/>
+    <n v="84.957999999999998"/>
+    <n v="119.958"/>
+    <n v="204.916"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="641845.34262612078"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="3"/>
+    <s v="MRS"/>
+    <s v="MERCED"/>
+    <s v="M"/>
+    <s v="BAYOT"/>
+    <s v="MERCED M.  BAYOT"/>
+    <m/>
+    <s v="Administrative Aide III"/>
+    <s v="TAGAYTAY OFFICE OF PUBLIC SAFETY"/>
+    <n v="12893"/>
+    <n v="65.537000000000006"/>
+    <n v="258.75"/>
+    <n v="324.28700000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="201495.23489047572"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="4"/>
+    <s v="MRS"/>
+    <s v="MARIA CORAZON"/>
+    <s v="P"/>
+    <s v="CABOTE"/>
+    <s v="MARIA CORAZON P.  CABOTE"/>
+    <m/>
+    <s v="Administrative Asst. I"/>
+    <s v="HUMAN REASOURCE MGT. OFFICE"/>
+    <n v="16320"/>
+    <n v="18.795999999999999"/>
+    <m/>
+    <n v="18.795999999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="14783.145423743998"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="5"/>
+    <s v="HON"/>
+    <s v="NATHANIEL"/>
+    <s v="B"/>
+    <s v="BURGOS"/>
+    <s v="NATHANIEL B.  BURGOS"/>
+    <m/>
+    <s v="Abc President"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="93942"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="44"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="199202.01942959998"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="5"/>
+    <s v="HON"/>
+    <s v="LOIS ANDREA "/>
+    <s v="R"/>
+    <s v="PALO"/>
+    <s v="LOIS ANDREA  R.  PALO"/>
+    <m/>
+    <s v="Sk President"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="93942"/>
+    <n v="26.875"/>
+    <n v="26.875"/>
+    <n v="53.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="243343.37600774999"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="6"/>
+    <s v="MR"/>
+    <s v="CONRADO"/>
+    <m/>
+    <s v="ELMIDO"/>
+    <s v="CONRADO  ELMIDO"/>
+    <m/>
+    <s v="Casual"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="11374"/>
+    <n v="41.375"/>
+    <n v="56.375"/>
+    <n v="97.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="53581.053497950001"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="7"/>
+    <s v="MRS"/>
+    <s v="DELIA"/>
+    <s v="D"/>
+    <s v="BROQUEZA"/>
+    <s v="DELIA D.  BROQUEZA"/>
+    <m/>
+    <s v="Senior Labor &amp;Employment 0Fficer"/>
+    <s v="CITY MAYOR'S OFFICE"/>
+    <n v="8713"/>
+    <n v="43.15"/>
+    <n v="75.8"/>
+    <n v="118.94999999999999"/>
+    <n v="4.7808700000000003E-2"/>
+    <n v="49549.479308744994"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="8"/>
+    <s v="MRS"/>
+    <s v="TEOFILA"/>
+    <s v="A"/>
+    <s v="PARAS"/>
+    <s v="TEOFILA A.  PARAS"/>
+    <m/>
+    <s v="Administrative Asst. II"/>
+    <s v="CITY ENGINEER'S OFFICE"/>
+    <n v="17338"/>
+    <n v="59.253"/>
+    <n v="99.167000000000002"/>
+    <n v="158.42000000000002"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="132370.21246449201"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="8"/>
+    <s v="MR"/>
+    <s v="MARCOS NOEL"/>
+    <s v="A."/>
+    <s v="CORTEZ"/>
+    <s v="MARCOS NOEL A.  CORTEZ"/>
+    <m/>
+    <s v="Tax Mapper II"/>
+    <s v="CITY ASSESSOR'S OFFICE"/>
+    <n v="32255"/>
+    <n v="16.257999999999999"/>
+    <n v="198.73699999999999"/>
+    <n v="214.995"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="334200.16849980754"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="9"/>
+    <s v="MR"/>
+    <s v="ROMEO"/>
+    <s v="B."/>
+    <s v="MENDOZA"/>
+    <s v="ROMEO B.  MENDOZA"/>
+    <m/>
+    <s v="Parking Aide Iv"/>
+    <s v="TOPS Waste Management"/>
+    <n v="16320"/>
+    <n v="42.085999999999999"/>
+    <n v="153.75"/>
+    <n v="195.83600000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="154025.966546304"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="10"/>
+    <s v="MRS"/>
+    <s v="JUANITA "/>
+    <s v="G."/>
+    <s v="ANAY"/>
+    <s v="JUANITA  G.  ANAY"/>
+    <m/>
+    <s v="Casual"/>
+    <s v="CENRO"/>
+    <n v="11374"/>
+    <n v="21.792000000000002"/>
+    <n v="24.542000000000002"/>
+    <n v="46.334000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="25397.693429913204"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="10"/>
+    <s v="MS"/>
+    <s v="BELEN"/>
+    <s v="C."/>
+    <s v="DE CASTO"/>
+    <s v="BELEN C.  DE CASTO"/>
+    <m/>
+    <s v="Security Guard I"/>
+    <s v="Mayor's Office"/>
+    <n v="12463"/>
+    <n v="111.77500000000001"/>
+    <n v="84.284999999999997"/>
+    <n v="196.06"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="117758.65907680601"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="11"/>
+    <s v="MRS"/>
+    <s v="SONIA"/>
+    <s v="A."/>
+    <s v="VERGARA"/>
+    <s v="SONIA A.  VERGARA"/>
+    <m/>
+    <s v="Revenue Collection Clerk II"/>
+    <s v="CITY TREASURER'S OFFICE"/>
+    <n v="12394"/>
+    <n v="0"/>
+    <n v="56.667000000000002"/>
+    <n v="56.667000000000002"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="33847.217448774602"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="12"/>
+    <s v="MRS"/>
+    <s v="EMMA"/>
+    <s v="R"/>
+    <s v="JAVIER"/>
+    <s v="EMMA R.  JAVIER"/>
+    <m/>
+    <s v="Administrative Aide VI"/>
+    <s v="CITY TREASURER'S OFFICE"/>
+    <n v="16280"/>
+    <n v="158.69999999999999"/>
+    <n v="119.25"/>
+    <n v="277.95"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="218073.22051019999"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="13"/>
+    <s v="MRS"/>
+    <s v="EDWIN"/>
+    <s v="D."/>
+    <s v="MONTENEGRO"/>
+    <s v="EDWIN D.  MONTENEGRO"/>
+    <m/>
+    <s v="Administrative Aide I"/>
+    <s v="CEO/Parks and Plaza"/>
+    <n v="11527"/>
+    <n v="10.586"/>
+    <n v="98.075000000000003"/>
+    <n v="108.661"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="60363.060217366903"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="13"/>
+    <s v="MR"/>
+    <s v="MARIANITO"/>
+    <s v="B"/>
+    <s v="VILLANUEVA"/>
+    <s v="MARIANITO B.  VILLANUEVA"/>
+    <m/>
+    <s v="Casual Employee"/>
+    <s v="CENRO"/>
+    <n v="11374"/>
+    <n v="24.795999999999999"/>
+    <n v="34.332999999999998"/>
+    <n v="59.128999999999998"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="32411.192964504196"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="14"/>
+    <s v="MR"/>
+    <s v="Alexander"/>
+    <s v="t."/>
+    <s v="Zaide"/>
+    <s v="ALEXANDER T.  ZAIDE"/>
+    <m/>
+    <s v="Executive Asst I"/>
+    <s v="Mayor's Office"/>
+    <n v="29259"/>
+    <n v="22.207999999999998"/>
+    <n v="27.207999999999998"/>
+    <n v="49.415999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="69680.029462768798"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="15"/>
+    <s v="ENGR"/>
+    <s v="GREGORIO"/>
+    <s v="M"/>
+    <s v="MONREAL"/>
+    <s v="GREGORIO M.  MONREAL"/>
+    <m/>
+    <s v="City Assessor II"/>
+    <s v="CITY ASSESSOR'S OFFICE"/>
+    <n v="107239"/>
+    <n v="214.488"/>
+    <n v="357.29199999999997"/>
+    <n v="571.78"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="2955037.3483014335"/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="16"/>
+    <s v="MS"/>
+    <s v="JESSICA"/>
+    <s v="M."/>
+    <s v="LOZAÑES"/>
+    <s v="JESSICA M.  LOZAÑES"/>
+    <d v="2021-11-30T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="OFFICE OF THE CITY MAYOR"/>
+    <n v="11374"/>
+    <n v="14.917"/>
+    <n v="19.917000000000002"/>
+    <n v="34.834000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="19094.040077213202"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="17"/>
+    <s v="MR"/>
+    <s v="ROLAND ANDREW"/>
+    <s v="G"/>
+    <s v="DE GUZMAN"/>
+    <s v="ROLAND ANDREW G.  DE GUZMAN"/>
+    <d v="2022-03-31T00:00:00"/>
+    <s v="Nurse Iii"/>
+    <s v="OSPITAL NG TAGAYTAY(DETAILED CHO)"/>
+    <n v="39433"/>
+    <n v="23.61"/>
+    <n v="40.396000000000001"/>
+    <n v="64.006"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="121635.89759883461"/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="18"/>
+    <s v="MR"/>
+    <s v="VICTOR"/>
+    <s v="V"/>
+    <s v="DE SAGUN"/>
+    <s v="VICTOR V.  DE SAGUN"/>
+    <d v="2020-10-22T00:00:00"/>
+    <s v="Administrative. Asst. V"/>
+    <s v="CITY ENGINEER'S OFFICE"/>
+    <n v="21470"/>
+    <n v="123.605"/>
+    <n v="248.279"/>
+    <n v="371.88400000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="384787.35918479599"/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="19"/>
+    <s v="MR"/>
+    <s v="HERMINIO"/>
+    <m/>
+    <s v="ROMILLA"/>
+    <s v="HERMINIO  ROMILLA"/>
+    <d v="2022-04-14T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="11814"/>
+    <n v="44.332999999999998"/>
+    <n v="64.332999999999998"/>
+    <n v="108.666"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="61868.830381894804"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="20"/>
+    <s v="MRS"/>
+    <s v="GLORIA"/>
+    <s v="O"/>
+    <s v="ENRIQUEZ"/>
+    <s v="GLORIA O.  ENRIQUEZ"/>
+    <d v="2021-05-31T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="GENERAL SERVICES OFFICE"/>
+    <n v="11374"/>
+    <n v="36.25"/>
+    <n v="51.25"/>
+    <n v="87.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="47962.579857500001"/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="21"/>
+    <s v="MR"/>
+    <s v="MARIO"/>
+    <m/>
+    <s v="BORJA"/>
+    <s v="MARIO  BORJA"/>
+    <d v="2022-01-19T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="GSO/detailed RTC"/>
+    <n v="11814"/>
+    <n v="28.292000000000002"/>
+    <n v="38.292000000000002"/>
+    <n v="66.584000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="37909.504372555202"/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="22"/>
+    <s v="MR"/>
+    <s v="CARLOS"/>
+    <s v="J"/>
+    <s v="SUNIGA"/>
+    <s v="CARLOS J.  SUNIGA"/>
+    <d v="2022-05-31T00:00:00"/>
+    <s v="Planning Officer Iv"/>
+    <s v="CITY PLANNING &amp;DEVELOPMENT OFFICE"/>
+    <n v="66465"/>
+    <n v="41.99"/>
+    <n v="97.5"/>
+    <n v="139.49"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="446804.29758919508"/>
+    <m/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="23"/>
+    <s v="MR"/>
+    <s v="MANUEL"/>
+    <s v="G"/>
+    <s v="CATALLA"/>
+    <s v="MANUEL G.  CATALLA"/>
+    <d v="2022-01-20T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROOVE"/>
+    <n v="10934"/>
+    <n v="20.832999999999998"/>
+    <n v="30.832999999999998"/>
+    <n v="51.665999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="27224.829433678799"/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <x v="24"/>
+    <s v="MR"/>
+    <s v="REYMOND"/>
+    <s v="A"/>
+    <s v="AMBION"/>
+    <s v="REYMOND A.  AMBION"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="City Vice Mayor"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="121179"/>
+    <n v="219"/>
+    <n v="225"/>
+    <n v="444"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="2592934.7778252"/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="24"/>
+    <s v="MS"/>
+    <s v="REYVIE"/>
+    <s v="E"/>
+    <s v="QUILAO"/>
+    <s v="REYVIE E.  QUILAO"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Executive Assistant I"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="30705"/>
+    <n v="65"/>
+    <n v="90"/>
+    <n v="155"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="229362.31229249999"/>
+    <m/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="24"/>
+    <s v="MS"/>
+    <s v="LORNA"/>
+    <s v="A"/>
+    <s v="PARRA"/>
+    <s v="LORNA A.  PARRA"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Executive Assistant I"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="30705"/>
+    <n v="57.417000000000002"/>
+    <n v="82.417000000000002"/>
+    <n v="139.834"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="206920.31985231899"/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <x v="24"/>
+    <s v="MS"/>
+    <s v="REMY"/>
+    <m/>
+    <s v="CARMONA"/>
+    <s v="REMY  CARMONA"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Administrative Aide III"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="13419"/>
+    <n v="56.042000000000002"/>
+    <n v="81.042000000000002"/>
+    <n v="137.084"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="88651.926876769197"/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="24"/>
+    <s v="MR"/>
+    <s v="CONRADO"/>
+    <m/>
+    <s v="ELMIDO"/>
+    <s v="CONRADO  ELMIDO"/>
+    <d v="2021-10-04T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="11374"/>
+    <n v="41.375"/>
+    <n v="56.375"/>
+    <n v="97.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="53581.053497950001"/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="25"/>
+    <s v="MR"/>
+    <s v="APOLINAR"/>
+    <s v="N."/>
+    <s v="COSTANTE"/>
+    <s v="APOLINAR N.  COSTANTE"/>
+    <s v="December 6,2021"/>
+    <s v="Casual Employee"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="11374"/>
+    <n v="26.5"/>
+    <n v="36.5"/>
+    <n v="63"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="34533.057497399997"/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="26"/>
+    <s v="MRS"/>
+    <s v="GALANG"/>
+    <s v="B"/>
+    <s v="JULIET"/>
+    <s v="GALANG B.  JULIET"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Local Legislative Staff Asst. II"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="18048"/>
+    <n v="48"/>
+    <n v="75"/>
+    <n v="123"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="106983.1675008"/>
+    <m/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="26"/>
+    <s v="MR"/>
+    <s v="DE CASTRO"/>
+    <s v="T"/>
+    <s v="LEO ANGELO"/>
+    <s v="DE CASTRO T.  LEO ANGELO"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Executive Assistant I"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="30705"/>
+    <n v="37.417000000000002"/>
+    <n v="52.417000000000002"/>
+    <n v="89.834000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="132932.477177319"/>
+    <m/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="27"/>
+    <s v="MR"/>
+    <s v="CLARO"/>
+    <s v="C"/>
+    <s v="BATINO"/>
+    <s v="CLARO C.  BATINO"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="City Councilor"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="98900"/>
+    <n v="175.167"/>
+    <n v="183.167"/>
+    <n v="358.334"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="1707912.3049220201"/>
+    <m/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="28"/>
+    <s v="MR"/>
+    <s v="CARLITO"/>
+    <s v="P"/>
+    <s v="MANALO"/>
+    <s v="CARLITO P.  MANALO"/>
+    <s v="October 25,2020"/>
+    <s v="Regular Casual"/>
+    <s v="Tagaytay International Conetion Center"/>
+    <n v="10934"/>
+    <n v="32.292000000000002"/>
+    <n v="42.292000000000002"/>
+    <n v="74.584000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="39301.217018571202"/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="29"/>
+    <s v="MR"/>
+    <s v="EDMUNDO"/>
+    <s v="R"/>
+    <s v="CASI"/>
+    <s v="EDMUNDO R.  CASI"/>
+    <d v="2022-07-28T00:00:00"/>
+    <s v="Trafic Aide I"/>
+    <s v="TAGAYTAY OFFICE OF PUBLIC SAFETY"/>
+    <n v="13522"/>
+    <n v="270.18700000000001"/>
+    <n v="411.18700000000001"/>
+    <n v="681.37400000000002"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="444025.33195323561"/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="30"/>
+    <s v="MS"/>
+    <s v="FLOR"/>
+    <s v="M"/>
+    <s v="CUENO"/>
+    <s v="FLOR M.  CUENO"/>
+    <s v="February 26,2020"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROVE"/>
+    <n v="10934"/>
+    <n v="22.332999999999998"/>
+    <n v="32.332999999999998"/>
+    <n v="54.665999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="28805.6463790788"/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="31"/>
+    <s v="MR"/>
+    <s v="ANGCAYA"/>
+    <s v="A"/>
+    <s v="IRENEO"/>
+    <s v="ANGCAYA A.  IRENEO"/>
+    <s v="January 7,2022"/>
+    <s v="Administrative Aide"/>
+    <s v="TOPS Waste Management"/>
+    <n v="11990"/>
+    <n v="116.50700000000001"/>
+    <n v="22.501999999999999"/>
+    <n v="139.00900000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="80323.636221257009"/>
+    <m/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="32"/>
+    <s v="MR"/>
+    <s v="MELENCIO"/>
+    <s v="M"/>
+    <s v="ALMAREZ"/>
+    <s v="MELENCIO M.  ALMAREZ"/>
+    <s v="December 5,2019"/>
+    <s v="Casual Employee"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="10494"/>
+    <n v="18.917000000000002"/>
+    <n v="28.917000000000002"/>
+    <n v="47.834000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="24191.289426229199"/>
+    <m/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="33"/>
+    <s v="MRS"/>
+    <s v="PILILLA"/>
+    <s v="V."/>
+    <s v="AYCARDO"/>
+    <s v="PILILLA V.  AYCARDO"/>
+    <d v="2022-07-31T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="GSO/detailed COA"/>
+    <n v="11814"/>
+    <n v="48.75"/>
+    <n v="68.75"/>
+    <n v="117.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="66898.455541499992"/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="34"/>
+    <s v="MR"/>
+    <s v="GEMINIANO"/>
+    <s v="M"/>
+    <s v="CAGUITLA"/>
+    <s v="GEMINIANO M.  CAGUITLA"/>
+    <d v="2021-09-16T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="CENRO"/>
+    <n v="11374"/>
+    <n v="40.67"/>
+    <n v="55.67"/>
+    <n v="96.34"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="52808.170782532005"/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="35"/>
+    <s v="MR"/>
+    <s v="VIRGILIO"/>
+    <s v="O"/>
+    <s v="FELLO"/>
+    <s v="VIRGILIO O.  FELLO"/>
+    <d v="2022-08-05T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROOVE"/>
+    <n v="11814"/>
+    <n v="48.957999999999998"/>
+    <n v="68.957999999999998"/>
+    <n v="117.916"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="67135.3045415448"/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="35"/>
+    <s v="MRS"/>
+    <s v="CATHERINE"/>
+    <s v="L"/>
+    <s v="NELSON"/>
+    <s v="CATHERINE L.  NELSON"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Dentist II"/>
+    <s v="CITY HEALTH OFFICE"/>
+    <n v="39433"/>
+    <n v="11.625"/>
+    <n v="8.625"/>
+    <n v="20.25"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="38482.750466774996"/>
+    <m/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="35"/>
+    <s v="MR"/>
+    <s v="DANILO"/>
+    <s v="M"/>
+    <s v="CANDELARIA"/>
+    <s v="DANILO M.  CANDELARIA"/>
+    <d v="2022-11-01T00:00:00"/>
+    <s v="Market Spervisor I"/>
+    <s v="Market Enterprise/detailed at CSU"/>
+    <n v="21257"/>
+    <n v="81.900000000000006"/>
+    <n v="70.75"/>
+    <n v="152.65"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="156379.57897833502"/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="36"/>
+    <s v="MR"/>
+    <s v="ANTONIO"/>
+    <s v="E"/>
+    <s v="PEJI"/>
+    <s v="ANTONIO E.  PEJI"/>
+    <s v="October 17,2022"/>
+    <s v="Administrative Aide III"/>
+    <s v="TOPS WASTE detailed at Rescue"/>
+    <n v="13419"/>
+    <n v="52"/>
+    <n v="72"/>
+    <n v="124"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="80190.532321199993"/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="37"/>
+    <s v="MRS"/>
+    <s v="TERESITA"/>
+    <s v="D"/>
+    <s v="DEL MUNDO"/>
+    <s v="TERESITA D.  DEL MUNDO"/>
+    <d v="2020-11-30T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="Sambong Elementary"/>
+    <n v="10934"/>
+    <n v="33.75"/>
+    <n v="43.75"/>
+    <n v="77.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="40837.771089499998"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="37"/>
+    <s v="MRS"/>
+    <s v="AMY LOU"/>
+    <s v="T"/>
+    <s v="MARAÑON"/>
+    <s v="AMY LOU T.  MARAÑON"/>
+    <s v="June 30.2022"/>
+    <s v="Casual Employee"/>
+    <s v="VICE MAYOR'S OFFICE"/>
+    <n v="11814"/>
+    <n v="47.5"/>
+    <n v="67.5"/>
+    <n v="115"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="65475.084146999994"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="38"/>
+    <s v="MS"/>
+    <s v="LELISA"/>
+    <s v="L"/>
+    <s v="MENDOZA"/>
+    <s v="LELISA L.  MENDOZA"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Administrative Assistant V"/>
+    <s v="CITY VICE MAYOR'S OFFICE"/>
+    <n v="24167"/>
+    <n v="53.31"/>
+    <n v="104.125"/>
+    <n v="157.435"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="183360.2907479915"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <x v="38"/>
+    <s v="MR"/>
+    <s v="LAZARO"/>
+    <s v="C"/>
+    <s v="SESMA"/>
+    <s v="LAZARO C.  SESMA"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROOVE"/>
+    <n v="11814"/>
+    <n v="50"/>
+    <n v="65.5"/>
+    <n v="115.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="65759.7584259"/>
+    <m/>
+  </r>
+  <r>
+    <n v="58"/>
+    <x v="39"/>
+    <s v="MR"/>
+    <s v="JUANITO"/>
+    <s v="P"/>
+    <s v="REYES"/>
+    <s v="JUANITO P.  REYES"/>
+    <d v="2022-08-27T00:00:00"/>
+    <s v="Security Guard I"/>
+    <s v="OFFICE OF THE CITY MAYOR"/>
+    <n v="13419"/>
+    <n v="100.584"/>
+    <n v="140.584"/>
+    <n v="241.16800000000001"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="155962.82499063839"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <x v="39"/>
+    <s v="MS"/>
+    <s v="MINA"/>
+    <s v="H"/>
+    <s v="CAJAS"/>
+    <s v="MINA H.  CAJAS"/>
+    <d v="2022-05-31T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="PICNIC GROVE"/>
+    <n v="11814"/>
+    <n v="46.25"/>
+    <n v="37.5"/>
+    <n v="83.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="47682.941715749999"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <x v="39"/>
+    <s v="MS"/>
+    <s v="BENILDA"/>
+    <s v="S"/>
+    <s v="HERNANDO"/>
+    <s v="BENILDA S.  HERNANDO"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Administrative Aide III"/>
+    <s v="CITY VICE MAYOR'S OFFICE"/>
+    <n v="13419"/>
+    <n v="26.457999999999998"/>
+    <n v="67.915999999999997"/>
+    <n v="94.373999999999995"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="61031.462074846197"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <x v="40"/>
+    <s v="MS"/>
+    <s v="MARITES"/>
+    <s v="R"/>
+    <s v="ILUSTRISIMO"/>
+    <s v="MARITES R.  ILUSTRISIMO"/>
+    <d v="2004-04-15T00:00:00"/>
+    <s v="Hotel Operation Specialist"/>
+    <s v="Mahogany Hotel"/>
+    <n v="14944"/>
+    <n v="95.167000000000002"/>
+    <n v="135.167"/>
+    <n v="230.334"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="165884.6370547392"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <x v="41"/>
+    <s v="MS"/>
+    <s v="JOLINA"/>
+    <s v="S"/>
+    <s v="BAYBAY"/>
+    <s v="JOLINA S.  BAYBAY"/>
+    <d v="2022-09-12T00:00:00"/>
+    <s v="Administrative Aide III (Clerk I)"/>
+    <s v="City Planning &amp; Development Office"/>
+    <n v="13419"/>
+    <n v="44.906999999999996"/>
+    <n v="69.957999999999998"/>
+    <n v="114.86499999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="74282.947540924491"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <x v="42"/>
+    <s v="MR"/>
+    <s v="ESTEBAN"/>
+    <s v="M"/>
+    <s v="MENDOZA"/>
+    <s v="ESTEBAN M.  MENDOZA"/>
+    <d v="2019-07-01T00:00:00"/>
+    <s v="City Councilor II"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="102072"/>
+    <n v="95"/>
+    <n v="135"/>
+    <n v="230"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="1131398.813112"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <x v="42"/>
+    <s v="MR"/>
+    <s v="CONRADO"/>
+    <s v="H"/>
+    <s v="ELMIDO"/>
+    <s v="CONRADO H.  ELMIDO"/>
+    <d v="2022-06-23T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="11814"/>
+    <n v="47.167000000000002"/>
+    <n v="67.167000000000002"/>
+    <n v="114.334"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="65095.898007505195"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <x v="42"/>
+    <s v="MS"/>
+    <s v="BRIGIDA"/>
+    <s v="M"/>
+    <s v="SEPINO"/>
+    <s v="BRIGIDA M.  SEPINO"/>
+    <d v="2022-10-21T00:00:00"/>
+    <s v="Daycare Worker I"/>
+    <s v="City Social Welfare Development Office"/>
+    <n v="16033"/>
+    <n v="61.375"/>
+    <n v="80.125"/>
+    <n v="141.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="109333.30861265"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <x v="43"/>
+    <s v="MS"/>
+    <s v="DINAH"/>
+    <s v="G"/>
+    <s v="TORRES"/>
+    <s v="DINAH G.  TORRES"/>
+    <d v="2022-08-01T00:00:00"/>
+    <s v="Instructor I"/>
+    <s v="City College of Tagaytay"/>
+    <n v="26228"/>
+    <n v="34.905000000000001"/>
+    <n v="92"/>
+    <n v="126.905"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="160407.68339831798"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <x v="44"/>
+    <s v="MS"/>
+    <s v="ESTER"/>
+    <s v="B"/>
+    <s v="DEL MUNDO"/>
+    <s v="ESTER B.  DEL MUNDO"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Admin Aide VI"/>
+    <s v="City Engineer's Office"/>
+    <n v="16157"/>
+    <n v="27.831"/>
+    <n v="81.221999999999994"/>
+    <n v="109.053"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="84914.058896156697"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <x v="44"/>
+    <s v="MS"/>
+    <s v="JUANITA"/>
+    <s v="M"/>
+    <s v="DE CASTRO"/>
+    <s v="JUANITA M.  DE CASTRO"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Draftsman II"/>
+    <s v="City Engineer's Office"/>
+    <n v="18048"/>
+    <n v="3.6909999999999998"/>
+    <n v="92.5"/>
+    <n v="96.191000000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="83665.185894873604"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <x v="45"/>
+    <s v="MS"/>
+    <s v="JULIET"/>
+    <s v="B"/>
+    <s v="GALANG"/>
+    <s v="JULIET B.  GALANG"/>
+    <d v="2022-06-30T00:00:00"/>
+    <s v="Local Legislative Staff Asst. II"/>
+    <s v="Sangguniang Panlungsod"/>
+    <n v="18048"/>
+    <n v="60.75"/>
+    <n v="89"/>
+    <n v="149.75"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="130249.8319776"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <x v="45"/>
+    <s v="MS"/>
+    <s v="WILMA"/>
+    <m/>
+    <s v="BAYAS"/>
+    <s v="WILMA  BAYAS"/>
+    <d v="2009-08-31T00:00:00"/>
+    <s v="City Civil Registrar"/>
+    <s v="City Civil Registrar Office"/>
+    <n v="26859"/>
+    <n v="155.494"/>
+    <n v="175"/>
+    <n v="330.49400000000003"/>
+    <n v="4.7808700000000003E-2"/>
+    <n v="424385.32056241028"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <x v="45"/>
+    <s v="MR"/>
+    <s v="INOCENCIO"/>
+    <s v="M"/>
+    <s v="ANGCAYA"/>
+    <s v="INOCENCIO M.  ANGCAYA"/>
+    <d v="2021-07-29T00:00:00"/>
+    <s v="Casual Employee"/>
+    <s v="Vice Mayor's Office detailed at Civil Security Unit"/>
+    <n v="11374"/>
+    <n v="38.707999999999998"/>
+    <n v="53.707999999999998"/>
+    <n v="92.415999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="50657.254629836796"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <x v="46"/>
+    <s v="MS"/>
+    <s v="ELSA"/>
+    <s v="T"/>
+    <s v="REYES"/>
+    <s v="ELSA T.  REYES"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Admin Aide IV(Clerk II)"/>
+    <s v="Secretary to the Sangguniang Panlungsod"/>
+    <n v="14354"/>
+    <n v="221.816"/>
+    <n v="307.75"/>
+    <n v="529.56600000000003"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="366331.52539514279"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <x v="45"/>
+    <s v="MS"/>
+    <s v="AMELITA"/>
+    <s v="V"/>
+    <s v="FERMA"/>
+    <s v="AMELITA V.  FERMA"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Agriculturist B"/>
+    <s v="City Agriculture Office"/>
+    <n v="26497"/>
+    <n v="187.75"/>
+    <n v="265.75"/>
+    <n v="453.5"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="579102.25425664999"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <x v="47"/>
+    <s v="MS"/>
+    <s v="PURISIMA CORAZON"/>
+    <s v="E"/>
+    <s v="DUNGO"/>
+    <s v="PURISIMA CORAZON E.  DUNGO"/>
+    <d v="2022-12-31T00:00:00"/>
+    <s v="Ticket Checker"/>
+    <s v="City Treasurer'S Office"/>
+    <n v="13419"/>
+    <n v="22.856999999999999"/>
+    <n v="57.25"/>
+    <n v="80.106999999999999"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="51805.023973019102"/>
+    <s v="DONE"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <x v="48"/>
+    <s v="MS"/>
+    <s v="SHIRLEY"/>
+    <s v="G"/>
+    <s v="DATU"/>
+    <s v="SHIRLEY G.  DATU"/>
+    <d v="2023-01-03T00:00:00"/>
+    <s v="Casual Nurse"/>
+    <s v="Ospital ng Tagaytay"/>
+    <n v="24167"/>
+    <n v="1.333"/>
+    <n v="26.332999999999998"/>
+    <n v="27.665999999999997"/>
+    <n v="4.8192699999999998E-2"/>
+    <n v="32221.842689579396"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34964778-ED56-41E3-A989-5EDA107D8196}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="50">
+        <item x="4"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q75" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:Q75" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -1125,28 +2861,28 @@
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="GENDER" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FIRSTNAME" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MIDDLE INITIAL" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LASTNAME" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FULLNAME" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE" dataDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="GENDER" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FIRSTNAME" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MIDDLE INITIAL" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LASTNAME" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FULLNAME" dataDxfId="11">
       <calculatedColumnFormula>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D2,"  ",F2),CONCATENATE(D2," ",LEFT(E2,1),".  ",F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="LASTDAY OF SERVICE" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="POSITION" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="OFFICE" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="MONTHLY SALARY" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="VACATION LEAVE" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SICK LEAVE" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TOTAL LEAVE CREDITS" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="LASTDAY OF SERVICE" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="POSITION" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="OFFICE" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="MONTHLY SALARY" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="VACATION LEAVE" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SICK LEAVE" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TOTAL LEAVE CREDITS" dataDxfId="4">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="CONSTANT FACTOR" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TOTAL LEAVE BENEFITS" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="CONSTANT FACTOR" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TOTAL LEAVE BENEFITS" dataDxfId="2">
       <calculatedColumnFormula>PRODUCT(K2,N2,O2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2FFF8905-FEE3-4A61-9B86-0D4B9755DDDB}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="17" xr3:uid="{2FFF8905-FEE3-4A61-9B86-0D4B9755DDDB}" name="REMARKS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1472,12 +3208,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D74FC88-12B0-42F9-A64B-FE12451DEB6E}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76:F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1968,7 +3812,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2904,7 +4748,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -3004,7 +4848,9 @@
         <f>PRODUCT(K29,N29,O29)</f>
         <v>61868.830381894804</v>
       </c>
-      <c r="Q29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -3109,7 +4955,9 @@
         <f>PRODUCT(K31,N31,O31)</f>
         <v>37909.504372555202</v>
       </c>
-      <c r="Q31" s="1"/>
+      <c r="Q31" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -3163,7 +5011,9 @@
         <f>PRODUCT(K32,N32,O32)</f>
         <v>446804.29758919508</v>
       </c>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -3537,7 +5387,9 @@
         <f>PRODUCT(K39,N39,O39)</f>
         <v>34533.057497399997</v>
       </c>
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -3699,7 +5551,9 @@
         <f>PRODUCT(K42,N42,O42)</f>
         <v>1707912.3049220201</v>
       </c>
-      <c r="Q42" s="1"/>
+      <c r="Q42" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -3753,7 +5607,9 @@
         <f>PRODUCT(K43,N43,O43)</f>
         <v>39301.217018571202</v>
       </c>
-      <c r="Q43" s="1"/>
+      <c r="Q43" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -3807,7 +5663,9 @@
         <f>PRODUCT(K44,N44,O44)</f>
         <v>444025.33195323561</v>
       </c>
-      <c r="Q44" s="1"/>
+      <c r="Q44" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -3969,7 +5827,9 @@
         <f>PRODUCT(K47,N47,O47)</f>
         <v>24191.289426229199</v>
       </c>
-      <c r="Q47" s="1"/>
+      <c r="Q47" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -4023,7 +5883,9 @@
         <f>PRODUCT(K48,N48,O48)</f>
         <v>66898.455541499992</v>
       </c>
-      <c r="Q48" s="1"/>
+      <c r="Q48" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -4131,7 +5993,9 @@
         <f>PRODUCT(K50,N50,O50)</f>
         <v>67135.3045415448</v>
       </c>
-      <c r="Q50" s="1"/>
+      <c r="Q50" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -4347,7 +6211,9 @@
         <f>PRODUCT(K54,N54,O54)</f>
         <v>40837.771089499998</v>
       </c>
-      <c r="Q54" s="1"/>
+      <c r="Q54" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -5484,7 +7350,7 @@
       <c r="F75" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="G75" s="16" t="str">
+      <c r="G75" s="6" t="str">
         <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D75,"  ",F75),CONCATENATE(D75," ",LEFT(E75,1),".  ",F75)))</f>
         <v>SHIRLEY G.  DATU</v>
       </c>
@@ -5540,7 +7406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G7"/>

--- a/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
+++ b/SHARED FOLDER/COMPUTATION TERMINAL LEAVE DATA BANK.docx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8D4DD0-0012-4784-A3DE-29D573DA1DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43115099-A046-4B58-906D-FA1FCC10EF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,18 +19,8 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -902,11 +892,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1087,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,15 +1134,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1203,6 +1196,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2767,7 +2764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34964778-ED56-41E3-A989-5EDA107D8196}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34964778-ED56-41E3-A989-5EDA107D8196}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -2854,35 +2851,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q75" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q75" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q78" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q78" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q75">
     <sortCondition ref="A1:A75"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE" dataDxfId="0"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="GENDER" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FIRSTNAME" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MIDDLE INITIAL" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LASTNAME" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FULLNAME" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DATE" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="GENDER" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="FIRSTNAME" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MIDDLE INITIAL" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LASTNAME" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FULLNAME" dataDxfId="10">
       <calculatedColumnFormula>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D2,"  ",F2),CONCATENATE(D2," ",LEFT(E2,1),".  ",F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="LASTDAY OF SERVICE" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="POSITION" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="OFFICE" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="MONTHLY SALARY" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="VACATION LEAVE" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SICK LEAVE" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TOTAL LEAVE CREDITS" dataDxfId="4">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="LASTDAY OF SERVICE" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="POSITION" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="OFFICE" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="MONTHLY SALARY" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="VACATION LEAVE" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SICK LEAVE" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TOTAL LEAVE CREDITS" dataDxfId="3">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="CONSTANT FACTOR" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TOTAL LEAVE BENEFITS" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="CONSTANT FACTOR" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TOTAL LEAVE BENEFITS" dataDxfId="1">
       <calculatedColumnFormula>PRODUCT(K2,N2,O2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2FFF8905-FEE3-4A61-9B86-0D4B9755DDDB}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{2FFF8905-FEE3-4A61-9B86-0D4B9755DDDB}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3318,10 +3315,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76:F77"/>
+    <sheetView tabSelected="1" topLeftCell="K58" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76:M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3439,7 +3436,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P2" s="2">
-        <f>PRODUCT(K2,N2,O2)</f>
+        <f t="shared" ref="P2:P33" si="0">PRODUCT(K2,N2,O2)</f>
         <v>98291.080321647489</v>
       </c>
       <c r="Q2" s="1"/>
@@ -3491,7 +3488,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P3" s="2">
-        <f>PRODUCT(K3,N3,O3)</f>
+        <f t="shared" si="0"/>
         <v>56991.946731935299</v>
       </c>
       <c r="Q3" s="1"/>
@@ -3543,7 +3540,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P4" s="2">
-        <f>PRODUCT(K4,N4,O4)</f>
+        <f t="shared" si="0"/>
         <v>35336.709468638095</v>
       </c>
       <c r="Q4" s="1"/>
@@ -3595,7 +3592,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P5" s="2">
-        <f>PRODUCT(K5,N5,O5)</f>
+        <f t="shared" si="0"/>
         <v>665936.52497109235</v>
       </c>
       <c r="Q5" s="1"/>
@@ -3647,7 +3644,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P6" s="2">
-        <f>PRODUCT(K6,N6,O6)</f>
+        <f t="shared" si="0"/>
         <v>177561.08826568321</v>
       </c>
       <c r="Q6" s="1"/>
@@ -3699,7 +3696,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P7" s="2">
-        <f>PRODUCT(K7,N7,O7)</f>
+        <f t="shared" si="0"/>
         <v>2330552.9805497653</v>
       </c>
       <c r="Q7" s="1"/>
@@ -3751,7 +3748,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P8" s="2">
-        <f>PRODUCT(K8,N8,O8)</f>
+        <f t="shared" si="0"/>
         <v>641845.34262612078</v>
       </c>
       <c r="Q8" s="1"/>
@@ -3803,7 +3800,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P9" s="2">
-        <f>PRODUCT(K9,N9,O9)</f>
+        <f t="shared" si="0"/>
         <v>201495.23489047572</v>
       </c>
       <c r="Q9" s="1"/>
@@ -3853,7 +3850,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P10" s="2">
-        <f>PRODUCT(K10,N10,O10)</f>
+        <f t="shared" si="0"/>
         <v>14783.145423743998</v>
       </c>
       <c r="Q10" s="1"/>
@@ -3905,7 +3902,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P11" s="2">
-        <f>PRODUCT(K11,N11,O11)</f>
+        <f t="shared" si="0"/>
         <v>199202.01942959998</v>
       </c>
       <c r="Q11" s="1"/>
@@ -3957,7 +3954,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P12" s="2">
-        <f>PRODUCT(K12,N12,O12)</f>
+        <f t="shared" si="0"/>
         <v>243343.37600774999</v>
       </c>
       <c r="Q12" s="1"/>
@@ -4007,7 +4004,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P13" s="2">
-        <f>PRODUCT(K13,N13,O13)</f>
+        <f t="shared" si="0"/>
         <v>53581.053497950001</v>
       </c>
       <c r="Q13" s="1"/>
@@ -4059,7 +4056,7 @@
         <v>4.7808700000000003E-2</v>
       </c>
       <c r="P14" s="2">
-        <f>PRODUCT(K14,N14,O14)</f>
+        <f t="shared" si="0"/>
         <v>49549.479308744994</v>
       </c>
       <c r="Q14" s="1"/>
@@ -4111,7 +4108,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P15" s="2">
-        <f>PRODUCT(K15,N15,O15)</f>
+        <f t="shared" si="0"/>
         <v>132370.21246449201</v>
       </c>
       <c r="Q15" s="1"/>
@@ -4163,7 +4160,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P16" s="2">
-        <f>PRODUCT(K16,N16,O16)</f>
+        <f t="shared" si="0"/>
         <v>334200.16849980754</v>
       </c>
       <c r="Q16" s="1"/>
@@ -4215,7 +4212,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P17" s="2">
-        <f>PRODUCT(K17,N17,O17)</f>
+        <f t="shared" si="0"/>
         <v>154025.966546304</v>
       </c>
       <c r="Q17" s="1"/>
@@ -4267,7 +4264,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P18" s="2">
-        <f>PRODUCT(K18,N18,O18)</f>
+        <f t="shared" si="0"/>
         <v>25397.693429913204</v>
       </c>
       <c r="Q18" s="1"/>
@@ -4319,7 +4316,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P19" s="2">
-        <f>PRODUCT(K19,N19,O19)</f>
+        <f t="shared" si="0"/>
         <v>117758.65907680601</v>
       </c>
       <c r="Q19" s="1"/>
@@ -4371,7 +4368,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P20" s="2">
-        <f>PRODUCT(K20,N20,O20)</f>
+        <f t="shared" si="0"/>
         <v>33847.217448774602</v>
       </c>
       <c r="Q20" s="1"/>
@@ -4423,7 +4420,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P21" s="2">
-        <f>PRODUCT(K21,N21,O21)</f>
+        <f t="shared" si="0"/>
         <v>218073.22051019999</v>
       </c>
       <c r="Q21" s="1"/>
@@ -4475,7 +4472,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P22" s="2">
-        <f>PRODUCT(K22,N22,O22)</f>
+        <f t="shared" si="0"/>
         <v>60363.060217366903</v>
       </c>
       <c r="Q22" s="1"/>
@@ -4527,7 +4524,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P23" s="2">
-        <f>PRODUCT(K23,N23,O23)</f>
+        <f t="shared" si="0"/>
         <v>32411.192964504196</v>
       </c>
       <c r="Q23" s="1"/>
@@ -4579,7 +4576,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P24" s="2">
-        <f>PRODUCT(K24,N24,O24)</f>
+        <f t="shared" si="0"/>
         <v>69680.029462768798</v>
       </c>
       <c r="Q24" s="1"/>
@@ -4631,7 +4628,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P25" s="2">
-        <f>PRODUCT(K25,N25,O25)</f>
+        <f t="shared" si="0"/>
         <v>2955037.3483014335</v>
       </c>
       <c r="Q25" s="1"/>
@@ -4685,7 +4682,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P26" s="2">
-        <f>PRODUCT(K26,N26,O26)</f>
+        <f t="shared" si="0"/>
         <v>19094.040077213202</v>
       </c>
       <c r="Q26" s="1"/>
@@ -4739,7 +4736,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P27" s="2">
-        <f>PRODUCT(K27,N27,O27)</f>
+        <f t="shared" si="0"/>
         <v>121635.89759883461</v>
       </c>
       <c r="Q27" s="1"/>
@@ -4793,7 +4790,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P28" s="2">
-        <f>PRODUCT(K28,N28,O28)</f>
+        <f t="shared" si="0"/>
         <v>384787.35918479599</v>
       </c>
       <c r="Q28" s="1"/>
@@ -4845,7 +4842,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P29" s="2">
-        <f>PRODUCT(K29,N29,O29)</f>
+        <f t="shared" si="0"/>
         <v>61868.830381894804</v>
       </c>
       <c r="Q29" s="1" t="s">
@@ -4900,7 +4897,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P30" s="2">
-        <f>PRODUCT(K30,N30,O30)</f>
+        <f t="shared" si="0"/>
         <v>47962.579857500001</v>
       </c>
       <c r="Q30" s="1"/>
@@ -4952,7 +4949,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P31" s="2">
-        <f>PRODUCT(K31,N31,O31)</f>
+        <f t="shared" si="0"/>
         <v>37909.504372555202</v>
       </c>
       <c r="Q31" s="1" t="s">
@@ -5008,7 +5005,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P32" s="2">
-        <f>PRODUCT(K32,N32,O32)</f>
+        <f t="shared" si="0"/>
         <v>446804.29758919508</v>
       </c>
       <c r="Q32" s="1" t="s">
@@ -5064,7 +5061,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P33" s="2">
-        <f>PRODUCT(K33,N33,O33)</f>
+        <f t="shared" si="0"/>
         <v>27224.829433678799</v>
       </c>
       <c r="Q33" s="1"/>
@@ -5118,7 +5115,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P34" s="2">
-        <f>PRODUCT(K34,N34,O34)</f>
+        <f t="shared" ref="P34:P65" si="1">PRODUCT(K34,N34,O34)</f>
         <v>2592934.7778252</v>
       </c>
       <c r="Q34" s="1"/>
@@ -5172,7 +5169,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P35" s="2">
-        <f>PRODUCT(K35,N35,O35)</f>
+        <f t="shared" si="1"/>
         <v>229362.31229249999</v>
       </c>
       <c r="Q35" s="1"/>
@@ -5226,7 +5223,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P36" s="2">
-        <f>PRODUCT(K36,N36,O36)</f>
+        <f t="shared" si="1"/>
         <v>206920.31985231899</v>
       </c>
       <c r="Q36" s="1"/>
@@ -5278,7 +5275,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P37" s="2">
-        <f>PRODUCT(K37,N37,O37)</f>
+        <f t="shared" si="1"/>
         <v>88651.926876769197</v>
       </c>
       <c r="Q37" s="1"/>
@@ -5330,7 +5327,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P38" s="2">
-        <f>PRODUCT(K38,N38,O38)</f>
+        <f t="shared" si="1"/>
         <v>53581.053497950001</v>
       </c>
       <c r="Q38" s="1"/>
@@ -5384,7 +5381,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P39" s="2">
-        <f>PRODUCT(K39,N39,O39)</f>
+        <f t="shared" si="1"/>
         <v>34533.057497399997</v>
       </c>
       <c r="Q39" s="1" t="s">
@@ -5440,7 +5437,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P40" s="2">
-        <f>PRODUCT(K40,N40,O40)</f>
+        <f t="shared" si="1"/>
         <v>106983.1675008</v>
       </c>
       <c r="Q40" s="1"/>
@@ -5494,7 +5491,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P41" s="2">
-        <f>PRODUCT(K41,N41,O41)</f>
+        <f t="shared" si="1"/>
         <v>132932.477177319</v>
       </c>
       <c r="Q41" s="1"/>
@@ -5548,7 +5545,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P42" s="2">
-        <f>PRODUCT(K42,N42,O42)</f>
+        <f t="shared" si="1"/>
         <v>1707912.3049220201</v>
       </c>
       <c r="Q42" s="1" t="s">
@@ -5604,7 +5601,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P43" s="2">
-        <f>PRODUCT(K43,N43,O43)</f>
+        <f t="shared" si="1"/>
         <v>39301.217018571202</v>
       </c>
       <c r="Q43" s="1" t="s">
@@ -5660,7 +5657,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P44" s="2">
-        <f>PRODUCT(K44,N44,O44)</f>
+        <f t="shared" si="1"/>
         <v>444025.33195323561</v>
       </c>
       <c r="Q44" s="1" t="s">
@@ -5716,7 +5713,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P45" s="2">
-        <f>PRODUCT(K45,N45,O45)</f>
+        <f t="shared" si="1"/>
         <v>28805.6463790788</v>
       </c>
       <c r="Q45" s="1"/>
@@ -5770,7 +5767,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P46" s="2">
-        <f>PRODUCT(K46,N46,O46)</f>
+        <f t="shared" si="1"/>
         <v>80323.636221257009</v>
       </c>
       <c r="Q46" s="1"/>
@@ -5824,7 +5821,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P47" s="2">
-        <f>PRODUCT(K47,N47,O47)</f>
+        <f t="shared" si="1"/>
         <v>24191.289426229199</v>
       </c>
       <c r="Q47" s="1" t="s">
@@ -5880,7 +5877,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P48" s="2">
-        <f>PRODUCT(K48,N48,O48)</f>
+        <f t="shared" si="1"/>
         <v>66898.455541499992</v>
       </c>
       <c r="Q48" s="1" t="s">
@@ -5936,7 +5933,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P49" s="2">
-        <f>PRODUCT(K49,N49,O49)</f>
+        <f t="shared" si="1"/>
         <v>52808.170782532005</v>
       </c>
       <c r="Q49" s="1"/>
@@ -5990,7 +5987,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P50" s="2">
-        <f>PRODUCT(K50,N50,O50)</f>
+        <f t="shared" si="1"/>
         <v>67135.3045415448</v>
       </c>
       <c r="Q50" s="1" t="s">
@@ -6046,7 +6043,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P51" s="2">
-        <f>PRODUCT(K51,N51,O51)</f>
+        <f t="shared" si="1"/>
         <v>38482.750466774996</v>
       </c>
       <c r="Q51" s="1"/>
@@ -6100,7 +6097,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P52" s="2">
-        <f>PRODUCT(K52,N52,O52)</f>
+        <f t="shared" si="1"/>
         <v>156379.57897833502</v>
       </c>
       <c r="Q52" s="1"/>
@@ -6154,7 +6151,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P53" s="2">
-        <f>PRODUCT(K53,N53,O53)</f>
+        <f t="shared" si="1"/>
         <v>80190.532321199993</v>
       </c>
       <c r="Q53" s="1"/>
@@ -6208,7 +6205,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P54" s="2">
-        <f>PRODUCT(K54,N54,O54)</f>
+        <f t="shared" si="1"/>
         <v>40837.771089499998</v>
       </c>
       <c r="Q54" s="1" t="s">
@@ -6264,7 +6261,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P55" s="2">
-        <f>PRODUCT(K55,N55,O55)</f>
+        <f t="shared" si="1"/>
         <v>65475.084146999994</v>
       </c>
       <c r="Q55" s="1" t="s">
@@ -6320,7 +6317,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P56" s="2">
-        <f>PRODUCT(K56,N56,O56)</f>
+        <f t="shared" si="1"/>
         <v>183360.2907479915</v>
       </c>
       <c r="Q56" s="1" t="s">
@@ -6376,7 +6373,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P57" s="2">
-        <f>PRODUCT(K57,N57,O57)</f>
+        <f t="shared" si="1"/>
         <v>65759.7584259</v>
       </c>
       <c r="Q57" s="1"/>
@@ -6430,7 +6427,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P58" s="2">
-        <f>PRODUCT(K58,N58,O58)</f>
+        <f t="shared" si="1"/>
         <v>155962.82499063839</v>
       </c>
       <c r="Q58" s="1" t="s">
@@ -6486,7 +6483,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P59" s="2">
-        <f>PRODUCT(K59,N59,O59)</f>
+        <f t="shared" si="1"/>
         <v>47682.941715749999</v>
       </c>
       <c r="Q59" s="1" t="s">
@@ -6542,7 +6539,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P60" s="2">
-        <f>PRODUCT(K60,N60,O60)</f>
+        <f t="shared" si="1"/>
         <v>61031.462074846197</v>
       </c>
       <c r="Q60" s="1" t="s">
@@ -6598,7 +6595,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P61" s="2">
-        <f>PRODUCT(K61,N61,O61)</f>
+        <f t="shared" si="1"/>
         <v>165884.6370547392</v>
       </c>
       <c r="Q61" s="1" t="s">
@@ -6654,7 +6651,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P62" s="2">
-        <f>PRODUCT(K62,N62,O62)</f>
+        <f t="shared" si="1"/>
         <v>74282.947540924491</v>
       </c>
       <c r="Q62" s="1" t="s">
@@ -6710,7 +6707,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P63" s="2">
-        <f>PRODUCT(K63,N63,O63)</f>
+        <f t="shared" si="1"/>
         <v>1131398.813112</v>
       </c>
       <c r="Q63" s="1" t="s">
@@ -6766,7 +6763,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P64" s="2">
-        <f>PRODUCT(K64,N64,O64)</f>
+        <f t="shared" si="1"/>
         <v>65095.898007505195</v>
       </c>
       <c r="Q64" s="1" t="s">
@@ -6822,7 +6819,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P65" s="2">
-        <f>PRODUCT(K65,N65,O65)</f>
+        <f t="shared" si="1"/>
         <v>109333.30861265</v>
       </c>
       <c r="Q65" s="1" t="s">
@@ -6878,7 +6875,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P66" s="2">
-        <f>PRODUCT(K66,N66,O66)</f>
+        <f t="shared" ref="P66:P97" si="2">PRODUCT(K66,N66,O66)</f>
         <v>160407.68339831798</v>
       </c>
       <c r="Q66" s="1" t="s">
@@ -6934,7 +6931,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P67" s="2">
-        <f>PRODUCT(K67,N67,O67)</f>
+        <f t="shared" si="2"/>
         <v>84914.058896156697</v>
       </c>
       <c r="Q67" s="1" t="s">
@@ -6990,7 +6987,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P68" s="2">
-        <f>PRODUCT(K68,N68,O68)</f>
+        <f t="shared" si="2"/>
         <v>83665.185894873604</v>
       </c>
       <c r="Q68" s="1" t="s">
@@ -7046,7 +7043,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P69" s="2">
-        <f>PRODUCT(K69,N69,O69)</f>
+        <f t="shared" si="2"/>
         <v>130249.8319776</v>
       </c>
       <c r="Q69" s="1" t="s">
@@ -7100,7 +7097,7 @@
         <v>4.7808700000000003E-2</v>
       </c>
       <c r="P70" s="2">
-        <f>PRODUCT(K70,N70,O70)</f>
+        <f t="shared" si="2"/>
         <v>424385.32056241028</v>
       </c>
       <c r="Q70" s="1" t="s">
@@ -7156,7 +7153,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P71" s="2">
-        <f>PRODUCT(K71,N71,O71)</f>
+        <f t="shared" si="2"/>
         <v>50657.254629836796</v>
       </c>
       <c r="Q71" s="1" t="s">
@@ -7212,7 +7209,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P72" s="2">
-        <f>PRODUCT(K72,N72,O72)</f>
+        <f t="shared" si="2"/>
         <v>366331.52539514279</v>
       </c>
       <c r="Q72" s="1" t="s">
@@ -7268,7 +7265,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P73" s="2">
-        <f>PRODUCT(K73,N73,O73)</f>
+        <f t="shared" si="2"/>
         <v>579102.25425664999</v>
       </c>
       <c r="Q73" s="1" t="s">
@@ -7324,7 +7321,7 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P74" s="2">
-        <f>PRODUCT(K74,N74,O74)</f>
+        <f t="shared" si="2"/>
         <v>51805.023973019102</v>
       </c>
       <c r="Q74" s="1" t="s">
@@ -7380,10 +7377,98 @@
         <v>4.8192699999999998E-2</v>
       </c>
       <c r="P75" s="2">
-        <f>PRODUCT(K75,N75,O75)</f>
+        <f t="shared" si="2"/>
         <v>32221.842689579396</v>
       </c>
       <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="25" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D76,"  ",F76),CONCATENATE(D76," ",LEFT(E76,1),".  ",F76)))</f>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="2">
+        <v>11814</v>
+      </c>
+      <c r="L76" s="12"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="4">
+        <v>4.8192699999999998E-2</v>
+      </c>
+      <c r="P76" s="2">
+        <f t="shared" ref="P76:P78" si="3">PRODUCT(K76,N76,O76)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="25" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D77,"  ",F77),CONCATENATE(D77," ",LEFT(E77,1),".  ",F77)))</f>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="26"/>
+      <c r="P77" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="25" t="str">
+        <f>UPPER(IF(Table1[[#This Row],[MIDDLE INITIAL]]="",CONCATENATE(D78,"  ",F78),CONCATENATE(D78," ",LEFT(E78,1),".  ",F78)))</f>
+        <v xml:space="preserve">  </v>
+      </c>
+      <c r="H78" s="7"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3">
+        <f>SUM(Table1[[#This Row],[VACATION LEAVE]:[SICK LEAVE]])</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="26"/>
+      <c r="P78" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7398,7 +7483,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C75</xm:sqref>
+          <xm:sqref>C2:C78</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
